--- a/dataconfig/testdata.xlsx
+++ b/dataconfig/testdata.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\p22naf\dataconfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10830" windowWidth="16335" xWindow="480" yWindow="90"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -58,97 +53,111 @@
     <t>实际结果</t>
   </si>
   <si>
+    <t>xxb-01</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
-    <t>https://crfcrm-uata.crfchina.com/crf_crm/icmall/applyWhite.do</t>
+    <t>http://fts2-uata.crfchina.com/accountservice/borrower/32f312968b23ac445177703dad3b7e76</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{
+  "requestRefNo": null,
+  "result": "SUCCESS",
+  "failCode": "",
+  "failReason": "",
+  "crfUid": "32f312968b23ac445177703dad3b7e76",
+  "customerName": "殷金彪",
+  "idType": "idCard",
+  "idNo": "321283198811090016",
+  "mobile": "13611767797",
+  "bankCardNo": "6214850216521689",
+  "bankCode": "CMB",
+  "cityId": "6530",
+  "status": "available",
+  "email": null,
+  "bankName": "招商银行",
+  "signed": true
+}</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>xxb-02</t>
+  </si>
+  <si>
+    <t>https://cmall-uata.crfchina.com/cmall_crfb2b/rong/loanApply/loanApplyResult</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
-    <t xml:space="preserve">{"industryName":"猪健康我","alipayTransactionCnt":1,"address":"广东省罗定市龙湾镇棠棣村委茶山二队6号","unitName":"福鑫阁休闲会所","incomeStart":3000,"alipayTransactionAmount":10000,"faceContrastStatus":2,"incomeEnd":6000,"userPhone":"13611768888","applyScore":256,"alipayTaobaoAmount":0.0,"userName":"辣妹子","idCardImgHead":"http://pics2.crfchina.com/group8/M00/10/CC/CsMkD1oOkNKAM2hDAAIAgw_Z4Ho657.jpg?token=9c6167754d0d1b1df254a2839cfef674&amp;ts=1510904018","alipayCheckStatus":0,"industryCode":2,"idCardImgTail":"http://pics2.crfchina.com/group8/M00/10/CD/CsMkD1oOkOSAerhmAAJOYJEBgAA847.jpg?token=8e8748cb777b5e99311286efc872c292&amp;ts=1510904036","osType":1,"antCreditPayAmount":3600.00,"kissoId":"ff80808164da74d30164edefa6180008","userIdNo":"374860199812106862","signOrg":"罗定市公安局","isConfirm":"1","homeAddress":"陆家嘴","email":"111222@163.com","auditChannel":"crf"} </t>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>{"order_no":"255819622617124","conclusion":10,"phone":"13611767797","user_idno":"321283198811090016","name":"测试","crfUid":"32f312968b23ac445177703dad3b7e76","auditCode":1}</t>
   </si>
   <si>
     <t>{
-  "crfUid": "fd1b063017dd4090b53dac855d190192",
-  "creditLimit": 1000,
-  "result": 0,
-  "success": "重复提交，已处理成功！"
+  "error": 200,
+  "msg": "success",
+  "is_api_v3_order_approvefeedback_response": {}
 }</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>xb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>{"error": 2003, "msg": "订单id对应的订单不存在", "is_api_v3_order_approvefeedback_response": {}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <color theme="10"/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -164,35 +173,32 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -458,26 +464,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="6" width="13.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="22" style="4" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" style="4" width="49.42578125"/>
+    <col customWidth="1" max="6" min="6" style="4" width="13.85546875"/>
+    <col customWidth="1" max="8" min="8" style="4" width="14.85546875"/>
+    <col customWidth="1" max="9" min="9" style="4" width="12.28515625"/>
+    <col customWidth="1" max="11" min="11" style="4" width="25.42578125"/>
+    <col customWidth="1" max="12" min="12" style="4" width="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,28 +523,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="15.75" r="2" s="4" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="n"/>
       <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
@@ -544,54 +550,94 @@
         <v>18</v>
       </c>
     </row>
+    <row customHeight="1" ht="15.75" r="3" s="4" spans="1:12">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>2222</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>555</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>444</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>6666</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="1">
+    <row r="2" spans="1:5">
+      <c r="C2" s="1" t="n">
         <v>3333</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/dataconfig/testdata.xlsx
+++ b/dataconfig/testdata.xlsx
@@ -106,17 +106,17 @@
     <t>name</t>
   </si>
   <si>
-    <t>{"order_no":"255819622617124","conclusion":10,"phone":"13611767797","user_idno":"321283198811090016","name":"测试","crfUid":"32f312968b23ac445177703dad3b7e76","auditCode":1}</t>
+    <t>{"order_no":"255819622617124","conclusion":10,"phone":"13611767797","user_idno":"321283198811090016","name":"","crfUid":"32f312968b23ac445177703dad3b7e76","auditCode":1}</t>
   </si>
   <si>
     <t>{
-  "error": 200,
-  "msg": "success",
+  "error": 2003,
+  "msg": "订单id对应的订单不存在",
   "is_api_v3_order_approvefeedback_response": {}
 }</t>
   </si>
   <si>
-    <t>{"error": 2003, "msg": "订单id对应的订单不存在", "is_api_v3_order_approvefeedback_response": {}}</t>
+    <t>{"error": 200, "msg": "success", "is_api_v3_order_approvefeedback_response": {}}</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
@@ -481,6 +481,7 @@
     <col customWidth="1" max="6" min="6" style="4" width="13.85546875"/>
     <col customWidth="1" max="8" min="8" style="4" width="14.85546875"/>
     <col customWidth="1" max="9" min="9" style="4" width="12.28515625"/>
+    <col customWidth="1" max="10" min="10" style="4" width="27.140625"/>
     <col customWidth="1" max="11" min="11" style="4" width="25.42578125"/>
     <col customWidth="1" max="12" min="12" style="4" width="22"/>
   </cols>
@@ -585,7 +586,7 @@
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
